--- a/biology/Médecine/Hôpital_Ambroise-Paré_(Boulogne-Billancourt)/Hôpital_Ambroise-Paré_(Boulogne-Billancourt).xlsx
+++ b/biology/Médecine/Hôpital_Ambroise-Paré_(Boulogne-Billancourt)/Hôpital_Ambroise-Paré_(Boulogne-Billancourt).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Ambroise-Par%C3%A9_(Boulogne-Billancourt)</t>
+          <t>Hôpital_Ambroise-Paré_(Boulogne-Billancourt)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital Ambroise-Paré est un hôpital universitaire de l'Assistance publique - Hôpitaux de Paris (AP-HP) situé à Boulogne-Billancourt dans les Hauts-de-Seine, affilié à l'université Paris-Saclay.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Ambroise-Par%C3%A9_(Boulogne-Billancourt)</t>
+          <t>Hôpital_Ambroise-Paré_(Boulogne-Billancourt)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a reçu ce nom en 1921 quand l'APHP a racheté avec l'aide financière de la municipalité le sanatorium du docteur Paul Sollier, situé entre la Seine et la rue Castéja, alors célèbre maison de santé, quelque peu mondaine, qui avait accueilli Marcel Proust[1].
-En 1944, il fut prévu de reconstruire l'hôpital Ambroise-Paré, détruit par des bombardements durant la Seconde Guerre mondiale, à l'emplacement de la cour, elle aussi endommagée, du château Rothschild situé dans la commune. La décision, entérinée 1948 par le ministère de la Reconstruction, fut opposée par la propriétaire Miriam-Alexandrine de Rothschild[2]. En 1951, le classement aux monuments historiques du petit château de Buchillot, situé dans le domaine, puis le classement du parc du château aidèrent à protéger le domaine[3],[4],[2]. Finalement, la baronne accepta en 1962 l'expropriation et céda les six hectares demandés[2]. L'édification de l'hôpital commença en 1965 et fut terminée en 1969[2].
-Il a été agrandi en 2007 par adjonction d'une nouvelle aile de chirurgie viscérale[5].
-L'hôpital emploie[Quand ?] 1 922 personnes dont 431 de personnel médical et 1 492 de personnel non médical[6].
-L'hôpital est partenaire de l'université de Versailles – Saint-Quentin-en-Yvelines en cancérologie et onco-hématologie[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a reçu ce nom en 1921 quand l'APHP a racheté avec l'aide financière de la municipalité le sanatorium du docteur Paul Sollier, situé entre la Seine et la rue Castéja, alors célèbre maison de santé, quelque peu mondaine, qui avait accueilli Marcel Proust.
+En 1944, il fut prévu de reconstruire l'hôpital Ambroise-Paré, détruit par des bombardements durant la Seconde Guerre mondiale, à l'emplacement de la cour, elle aussi endommagée, du château Rothschild situé dans la commune. La décision, entérinée 1948 par le ministère de la Reconstruction, fut opposée par la propriétaire Miriam-Alexandrine de Rothschild. En 1951, le classement aux monuments historiques du petit château de Buchillot, situé dans le domaine, puis le classement du parc du château aidèrent à protéger le domaine. Finalement, la baronne accepta en 1962 l'expropriation et céda les six hectares demandés. L'édification de l'hôpital commença en 1965 et fut terminée en 1969.
+Il a été agrandi en 2007 par adjonction d'une nouvelle aile de chirurgie viscérale.
+L'hôpital emploie[Quand ?] 1 922 personnes dont 431 de personnel médical et 1 492 de personnel non médical.
+L'hôpital est partenaire de l'université de Versailles – Saint-Quentin-en-Yvelines en cancérologie et onco-hématologie.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Ambroise-Par%C3%A9_(Boulogne-Billancourt)</t>
+          <t>Hôpital_Ambroise-Paré_(Boulogne-Billancourt)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,15 +562,17 @@
           <t>Personnalités liées à l'hôpital Ambroise-Paré</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hachimi Nait-Djoudi y a exercé
 Denis Savignat
 Eddie Barclay
 Claude Jade
-L'universitaire Jacqueline de Romilly y est décédée[8].
+L'universitaire Jacqueline de Romilly y est décédée.
 Georges Mathieu
-La résistante Carme Ballester (1900-1972) y est décédée[9].</t>
+La résistante Carme Ballester (1900-1972) y est décédée.</t>
         </is>
       </c>
     </row>
